--- a/dell/summary_report.xlsx
+++ b/dell/summary_report.xlsx
@@ -14,7 +14,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+  <si>
+    <t>Service Tag</t>
+  </si>
+  <si>
+    <t>C1MM2S2</t>
+  </si>
+  <si>
+    <t>conf_passed</t>
+  </si>
+  <si>
+    <t>1593</t>
+  </si>
+  <si>
+    <t>conf_error</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>hw_passed</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>hw_error</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
   <si>
     <t>C1WN2S2</t>
   </si>
@@ -357,18 +387,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/dell/summary_report.xlsx
+++ b/dell/summary_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>Service Tag</t>
   </si>
@@ -22,25 +22,31 @@
     <t>C1MM2S2</t>
   </si>
   <si>
-    <t>conf_passed</t>
+    <t>IP addres</t>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+  </si>
+  <si>
+    <t>Conf passed</t>
   </si>
   <si>
     <t>1593</t>
   </si>
   <si>
-    <t>conf_error</t>
+    <t>Conf error</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>hw_passed</t>
+    <t>HW passed</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>hw_error</t>
+    <t>HW error</t>
   </si>
   <si>
     <t>58</t>
@@ -387,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -437,44 +443,60 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/dell/summary_report.xlsx
+++ b/dell/summary_report.xlsx
@@ -14,45 +14,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Service Tag</t>
   </si>
   <si>
-    <t>C1MM2S2</t>
+    <t>C1VV2S2</t>
   </si>
   <si>
     <t>IP addres</t>
   </si>
   <si>
-    <t>1.1.1.1</t>
+    <t>0.0.0.0</t>
   </si>
   <si>
     <t>Conf passed</t>
   </si>
   <si>
-    <t>1593</t>
+    <t>1602</t>
   </si>
   <si>
     <t>Conf error</t>
   </si>
   <si>
-    <t>4</t>
+    <t>0</t>
   </si>
   <si>
     <t>HW passed</t>
   </si>
   <si>
-    <t>13</t>
+    <t>70</t>
   </si>
   <si>
     <t>HW error</t>
   </si>
   <si>
-    <t>58</t>
+    <t>1</t>
   </si>
   <si>
     <t>C1WN2S2</t>
+  </si>
+  <si>
+    <t>1601</t>
+  </si>
+  <si>
+    <t>71</t>
   </si>
 </sst>
 </file>
@@ -472,7 +478,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -480,7 +486,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -488,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -496,7 +502,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/dell/summary_report.xlsx
+++ b/dell/summary_report.xlsx
@@ -25,7 +25,7 @@
     <t>IP addres</t>
   </si>
   <si>
-    <t>0.0.0.0</t>
+    <t>['0.0.0.0', '0.0.0.0']</t>
   </si>
   <si>
     <t>Conf passed</t>
@@ -397,7 +397,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/dell/summary_report.xlsx
+++ b/dell/summary_report.xlsx
@@ -25,31 +25,31 @@
     <t>IP addres</t>
   </si>
   <si>
-    <t>['0.0.0.0', '0.0.0.0']</t>
+    <t>0.0.0.0</t>
   </si>
   <si>
     <t>Conf passed</t>
   </si>
   <si>
-    <t>1634</t>
+    <t>1632</t>
   </si>
   <si>
     <t>Conf error</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>HW passed</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>HW error</t>
+  </si>
+  <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>HW passed</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>HW error</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/dell/summary_report.xlsx
+++ b/dell/summary_report.xlsx
@@ -14,49 +14,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Service Tag</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="18">
+  <si>
+    <t>ServiceTag</t>
   </si>
   <si>
     <t>C1VM2S2</t>
   </si>
   <si>
-    <t>IP addres</t>
-  </si>
-  <si>
-    <t>0.0.0.0</t>
-  </si>
-  <si>
-    <t>Conf passed</t>
-  </si>
-  <si>
-    <t>1632</t>
-  </si>
-  <si>
-    <t>Conf error</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>HW passed</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>HW error</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>CPU model</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>PCI device</t>
+  </si>
+  <si>
+    <t>System memory size</t>
+  </si>
+  <si>
+    <t>Memory module part number</t>
+  </si>
+  <si>
+    <t>Memory slot</t>
+  </si>
+  <si>
+    <t>HDD model</t>
+  </si>
+  <si>
+    <t>HDD fw</t>
+  </si>
+  <si>
+    <t>ST32</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>HDD slot population</t>
+  </si>
+  <si>
+    <t>PSU part number</t>
+  </si>
+  <si>
+    <t>PSU model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PWR SPLY,850W,RDNT,DELTA      </t>
+  </si>
+  <si>
+    <t>PSU fw</t>
+  </si>
+  <si>
+    <t>C1VM3S2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +86,27 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF008000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -93,9 +132,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,62 +432,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+    <row r="3" spans="1:12">
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+    <row r="4" spans="1:12">
+      <c r="H4" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:12">
+      <c r="H6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
+      <c r="K6" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/dell/summary_report.xlsx
+++ b/dell/summary_report.xlsx
@@ -13,74 +13,604 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of NIC.Integrated.1-2-1 LegacyBootProto,got NONE  should be  PXE']</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of System.Embedded.1 ThermalSettings.1#FanSpeedOffset,got Off  should be  Max Fan Speed', 'Wrong value: of System.Embedded.1 ServerPwr.1#PSRedPolicy,got Not Redundant  should be  Input Power Redundant', 'Wrong value: of System.Embedded.1 ChassisPwrState.1#ChassisLEDState,got Blinking  should be  Off', 'Wrong value: of iDRAC.Embedded.1 OS-BMC.1#AdminState,got Disabled  should be  Enabled', 'Wrong value: of NIC.Integrated.1-2-1 LegacyBootProto,got NONE  should be  PXE']</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="68">
   <si>
     <t>ServiceTag</t>
   </si>
   <si>
+    <t>C1TN2S2</t>
+  </si>
+  <si>
+    <t>HostName</t>
+  </si>
+  <si>
+    <t>R33-L16</t>
+  </si>
+  <si>
+    <t>CPU model</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>PCI device</t>
+  </si>
+  <si>
+    <t>System memory size</t>
+  </si>
+  <si>
+    <t>Memory module part number</t>
+  </si>
+  <si>
+    <t>Memory slot</t>
+  </si>
+  <si>
+    <t>HDD model</t>
+  </si>
+  <si>
+    <t>HDD fw</t>
+  </si>
+  <si>
+    <t>HDD slot population</t>
+  </si>
+  <si>
+    <t>PSU part number</t>
+  </si>
+  <si>
+    <t>PSU model</t>
+  </si>
+  <si>
+    <t>PSU fw</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>conf. pass</t>
+  </si>
+  <si>
+    <t>C1TP2S2</t>
+  </si>
+  <si>
+    <t>R33-L7</t>
+  </si>
+  <si>
+    <t>C1TQ2S2</t>
+  </si>
+  <si>
+    <t>R33-L25</t>
+  </si>
+  <si>
+    <t>C1TR2S2</t>
+  </si>
+  <si>
+    <t>R33-L14</t>
+  </si>
+  <si>
+    <t>C1TS2S2</t>
+  </si>
+  <si>
+    <t>RL33-L23</t>
+  </si>
+  <si>
+    <t>C1TT2S2</t>
+  </si>
+  <si>
+    <t>R33-L21</t>
+  </si>
+  <si>
+    <t>C1TW2S2</t>
+  </si>
+  <si>
+    <t>R33-L8</t>
+  </si>
+  <si>
     <t>C1VM2S2</t>
   </si>
   <si>
-    <t>CPU model</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>PCI device</t>
-  </si>
-  <si>
-    <t>System memory size</t>
-  </si>
-  <si>
-    <t>Memory module part number</t>
-  </si>
-  <si>
-    <t>Memory slot</t>
-  </si>
-  <si>
-    <t>HDD model</t>
-  </si>
-  <si>
-    <t>HDD fw</t>
-  </si>
-  <si>
-    <t>ST32</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>HDD slot population</t>
-  </si>
-  <si>
-    <t>PSU part number</t>
-  </si>
-  <si>
-    <t>PSU model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PWR SPLY,850W,RDNT,DELTA      </t>
-  </si>
-  <si>
-    <t>PSU fw</t>
-  </si>
-  <si>
-    <t>C1VM3S2</t>
+    <t>R33-L10</t>
+  </si>
+  <si>
+    <t>C1VN2S2</t>
+  </si>
+  <si>
+    <t>R33-L15</t>
+  </si>
+  <si>
+    <t>C1VP2S2</t>
+  </si>
+  <si>
+    <t>R33-L2</t>
+  </si>
+  <si>
+    <t>conf. fail</t>
+  </si>
+  <si>
+    <t>C1VQ2S2</t>
+  </si>
+  <si>
+    <t>R33-L24</t>
+  </si>
+  <si>
+    <t>C1VR2S2</t>
+  </si>
+  <si>
+    <t>R33-L12</t>
+  </si>
+  <si>
+    <t>C1VS2S2</t>
+  </si>
+  <si>
+    <t>R33-L9</t>
+  </si>
+  <si>
+    <t>C1VT2S2</t>
+  </si>
+  <si>
+    <t>R33-L18</t>
+  </si>
+  <si>
+    <t>C1VV2S2</t>
+  </si>
+  <si>
+    <t>R33-L1</t>
+  </si>
+  <si>
+    <t>C1VW2S2</t>
+  </si>
+  <si>
+    <t>R33-L6</t>
+  </si>
+  <si>
+    <t>C1WM2S2</t>
+  </si>
+  <si>
+    <t>R33-L17</t>
+  </si>
+  <si>
+    <t>C1WN2S2</t>
+  </si>
+  <si>
+    <t>R33-L26</t>
+  </si>
+  <si>
+    <t>C1WP2S2</t>
+  </si>
+  <si>
+    <t>R33-L19</t>
+  </si>
+  <si>
+    <t>C1WQ2S2</t>
+  </si>
+  <si>
+    <t>C1WR2S2</t>
+  </si>
+  <si>
+    <t>R33-L20</t>
+  </si>
+  <si>
+    <t>C1WS2S2</t>
+  </si>
+  <si>
+    <t>R33-L13</t>
+  </si>
+  <si>
+    <t>C1WT2S2</t>
+  </si>
+  <si>
+    <t>R33-L5</t>
+  </si>
+  <si>
+    <t>C1WV2S2</t>
+  </si>
+  <si>
+    <t>R33-L22</t>
+  </si>
+  <si>
+    <t>C1XM2S2</t>
+  </si>
+  <si>
+    <t>R33-L11</t>
+  </si>
+  <si>
+    <t>C1XN2S2</t>
+  </si>
+  <si>
+    <t>R33-L4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -132,12 +662,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,162 +963,1218 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:16">
+      <c r="A2" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>3</v>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>5</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="H3" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>5</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="H4" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>3</v>
+        <v>23</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>5</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="H6" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/dell/summary_report.xlsx
+++ b/dell/summary_report.xlsx
@@ -13,12 +13,658 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of System.Embedded.1 ChassisPwrState.1#ChassisLEDState,got Blinking  should be  Off']</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of System.Embedded.1 ChassisPwrState.1#ChassisLEDState,got Blinking  should be  Off']</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of System.Embedded.1 ThermalSettings.1#FanSpeedOffset,got Off  should be  Max Fan Speed', 'Wrong value: of System.Embedded.1 ServerPwr.1#PSRedPolicy,got Not Redundant  should be  Input Power Redundant', 'Wrong value: of iDRAC.Embedded.1 OS-BMC.1#AdminState,got Disabled  should be  Enabled', 'Wrong value: of NIC.Integrated.1-2-1 LegacyBootProto,got NONE  should be  PXE']</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="73">
+  <si>
+    <t>ServiceTag</t>
+  </si>
+  <si>
+    <t>C1TN2S2</t>
+  </si>
+  <si>
+    <t>HostName</t>
+  </si>
+  <si>
+    <t>R33-L16</t>
+  </si>
+  <si>
+    <t>CPU model</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>PCI device</t>
+  </si>
+  <si>
+    <t>Memory tot.size</t>
+  </si>
+  <si>
+    <t>Memory P/Ns</t>
+  </si>
+  <si>
+    <t>Memory slot</t>
+  </si>
+  <si>
+    <t>HDD model</t>
+  </si>
+  <si>
+    <t>HDD fw</t>
+  </si>
+  <si>
+    <t>HDD slot pop.</t>
+  </si>
+  <si>
+    <t>PSU P/Ns</t>
+  </si>
+  <si>
+    <t>PSU model</t>
+  </si>
+  <si>
+    <t>PSU fw</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>conf. pass</t>
+  </si>
+  <si>
+    <t>Health status</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Power status</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>C1TP2S2</t>
+  </si>
+  <si>
+    <t>R33-L7</t>
+  </si>
+  <si>
+    <t>C1TQ2S2</t>
+  </si>
+  <si>
+    <t>R33-L25</t>
+  </si>
+  <si>
+    <t>C1TR2S2</t>
+  </si>
+  <si>
+    <t>R33-L14</t>
+  </si>
+  <si>
+    <t>C1TS2S2</t>
+  </si>
+  <si>
+    <t>RL33-L23</t>
+  </si>
+  <si>
+    <t>C1TT2S2</t>
+  </si>
+  <si>
+    <t>R33-L21</t>
+  </si>
+  <si>
+    <t>C1TW2S2</t>
+  </si>
+  <si>
+    <t>R33-L8</t>
+  </si>
+  <si>
+    <t>C1VM2S2</t>
+  </si>
+  <si>
+    <t>R33-L10</t>
+  </si>
+  <si>
+    <t>C1VN2S2</t>
+  </si>
+  <si>
+    <t>R33-L15</t>
+  </si>
+  <si>
+    <t>C1VP2S2</t>
+  </si>
+  <si>
+    <t>R33-L2</t>
+  </si>
+  <si>
+    <t>conf. fail</t>
+  </si>
+  <si>
+    <t>C1VQ2S2</t>
+  </si>
+  <si>
+    <t>R33-L24</t>
+  </si>
+  <si>
+    <t>C1VR2S2</t>
+  </si>
+  <si>
+    <t>R33-L12</t>
+  </si>
+  <si>
+    <t>C1VS2S2</t>
+  </si>
+  <si>
+    <t>R33-L9</t>
+  </si>
+  <si>
+    <t>C1VT2S2</t>
+  </si>
+  <si>
+    <t>R33-L18</t>
+  </si>
+  <si>
+    <t>C1VV2S2</t>
+  </si>
+  <si>
+    <t>R33-L1</t>
+  </si>
+  <si>
+    <t>C1VW2S2</t>
+  </si>
+  <si>
+    <t>R33-L6</t>
+  </si>
+  <si>
+    <t>C1WM2S2</t>
+  </si>
+  <si>
+    <t>R33-L17</t>
+  </si>
+  <si>
+    <t>C1WN2S2</t>
+  </si>
+  <si>
+    <t>R33-L26</t>
+  </si>
+  <si>
+    <t>C1WP2S2</t>
+  </si>
+  <si>
+    <t>R33-L19</t>
+  </si>
+  <si>
+    <t>C1WQ2S2</t>
+  </si>
+  <si>
+    <t>R33-L3</t>
+  </si>
+  <si>
+    <t>C1WR2S2</t>
+  </si>
+  <si>
+    <t>R33-L20</t>
+  </si>
+  <si>
+    <t>C1WS2S2</t>
+  </si>
+  <si>
+    <t>R33-L13</t>
+  </si>
+  <si>
+    <t>C1WT2S2</t>
+  </si>
+  <si>
+    <t>R33-L5</t>
+  </si>
+  <si>
+    <t>C1WV2S2</t>
+  </si>
+  <si>
+    <t>R33-L22</t>
+  </si>
+  <si>
+    <t>C1XM2S2</t>
+  </si>
+  <si>
+    <t>R33-L11</t>
+  </si>
+  <si>
+    <t>C1XN2S2</t>
+  </si>
+  <si>
+    <t>R33-L4</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF008000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -44,8 +690,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +991,1382 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>